--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zmswa\engineering\unl_masters\fall_2024\ecen935_computational_intelligence\homework_3_pso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1EDD55F4-CA18-418D-836C-8AF5C74FF1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B010CCF4-0F95-4DD6-8AB3-7D7CEF225B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{8EA6CDEE-7D72-4BAE-9FCA-5256BABF6196}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8EA6CDEE-7D72-4BAE-9FCA-5256BABF6196}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,29 @@
     <sheet name="velocity" sheetId="4" r:id="rId4"/>
     <sheet name="n_particles" sheetId="6" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">accel!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">accel!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$L$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
   <si>
     <t>best_x</t>
   </si>
@@ -71,13 +81,16 @@
   <si>
     <t>(C1, C2)</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -558,7 +571,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -655,103 +668,89 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>accel!$F$2:$F$25</c:f>
+              <c:f>accel!$G$2:$G$25</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>(0.0, 0.5)</c:v>
+                  <c:v>0.0  (0.0, 0.5)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>(0.0, 1.0)</c:v>
+                  <c:v>0.0  (0.0, 1.0)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>(0.0, 1.5)</c:v>
+                  <c:v>0.0  (0.0, 1.5)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>(0.0, 2.0)</c:v>
+                  <c:v>0.0  (0.0, 2.0)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(0.5, 0.0)</c:v>
+                  <c:v>0.3  (0.5, 2.0)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>(0.5, 0.5)</c:v>
+                  <c:v>0.3  (0.5, 1.5)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>(0.5, 1.0)</c:v>
+                  <c:v>0.5  (0.5, 1.0)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>(0.5, 1.5)</c:v>
+                  <c:v>0.5  (1.0, 2.0)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>(0.5, 2.0)</c:v>
+                  <c:v>0.7  (1.0, 1.5)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>(1.0, 0.0)</c:v>
+                  <c:v>0.8  (1.5, 2.0)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>(1.0, 0.5)</c:v>
+                  <c:v>1.0  (0.5, 0.5)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>(1.0, 1.0)</c:v>
+                  <c:v>1.0  (1.0, 1.0)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>(1.0, 1.5)</c:v>
+                  <c:v>1.0  (1.5, 1.5)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>(1.0, 2.0)</c:v>
+                  <c:v>1.0  (2.0, 2.0)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>(1.5, 0.0)</c:v>
+                  <c:v>1.3  (2.0, 1.5)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>(1.5, 0.5)</c:v>
+                  <c:v>1.5  (1.5, 1.0)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>(1.5, 1.0)</c:v>
+                  <c:v>2.0  (1.0, 0.5)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>(1.5, 1.5)</c:v>
+                  <c:v>2.0  (2.0, 1.0)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>(1.5, 2.0)</c:v>
+                  <c:v>3.0  (1.5, 0.5)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>(2.0, 0.0)</c:v>
+                  <c:v>4.0  (2.0, 0.5)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>(2.0, 0.5)</c:v>
+                  <c:v>-  (0.5, 0.0)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>(2.0, 1.0)</c:v>
+                  <c:v>-  (1.0, 0.0)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>(2.0, 1.5)</c:v>
+                  <c:v>-  (1.5, 0.0)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>(2.0, 2.0)</c:v>
+                  <c:v>-  (2.0, 0.0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>accel!$L$2:$L$25</c:f>
+              <c:f>accel!$M$2:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -768,64 +767,64 @@
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>117</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>152</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>678</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>119</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>156</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>164</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>217</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>311</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,6 +854,310 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>accel!$G$2:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.0  (0.0, 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0  (0.0, 1.0)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0  (0.0, 1.5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0  (0.0, 2.0)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3  (0.5, 2.0)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3  (0.5, 1.5)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5  (0.5, 1.0)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5  (1.0, 2.0)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7  (1.0, 1.5)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8  (1.5, 2.0)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0  (0.5, 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0  (1.0, 1.0)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0  (1.5, 1.5)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0  (2.0, 2.0)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3  (2.0, 1.5)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5  (1.5, 1.0)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0  (1.0, 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0  (2.0, 1.0)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0  (1.5, 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0  (2.0, 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-  (0.5, 0.0)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-  (1.0, 0.0)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-  (1.5, 0.0)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-  (2.0, 0.0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>accel!$N$2:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9722-4C42-8ECE-42610E4725BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>trend all</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>(accel!$M$2:$M$10,accel!$M$12:$M$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FDFE-476C-8EB7-C68FFA712C3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>trend first</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln w="25400" cap="rnd">
@@ -866,95 +1169,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:forward val="4"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
-          <c:cat>
-            <c:strRef>
-              <c:f>accel!$F$2:$F$25</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>(0.0, 0.5)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>(0.0, 1.0)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>(0.0, 1.5)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>(0.0, 2.0)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(0.5, 0.0)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>(0.5, 0.5)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>(0.5, 1.0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>(0.5, 1.5)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>(0.5, 2.0)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>(1.0, 0.0)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>(1.0, 0.5)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>(1.0, 1.0)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>(1.0, 1.5)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>(1.0, 2.0)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>(1.5, 0.0)</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>(1.5, 0.5)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>(1.5, 1.0)</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>(1.5, 1.5)</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>(1.5, 2.0)</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>(2.0, 0.0)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>(2.0, 0.5)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>(2.0, 1.0)</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>(2.0, 1.5)</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>(2.0, 2.0)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>accel!$M$2:$M$25</c:f>
+              <c:f>accel!$N$2:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -971,61 +1195,49 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>26</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,7 +1245,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9722-4C42-8ECE-42610E4725BD}"/>
+              <c16:uniqueId val="{00000006-FDFE-476C-8EB7-C68FFA712C3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1081,7 +1293,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>accel!$I$2:$I$25</c:f>
+              <c:f>accel!$J$2:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1098,7 +1310,7 @@
                   <c:v>-1.031628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8116979999999998</c:v>
+                  <c:v>-1.031628</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-1.031628</c:v>
@@ -1113,7 +1325,7 @@
                   <c:v>-1.031628</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8116979999999998</c:v>
+                  <c:v>-1.031628</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-1.031628</c:v>
@@ -1128,7 +1340,7 @@
                   <c:v>-1.031628</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8116979999999998</c:v>
+                  <c:v>-1.031628</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-1.031628</c:v>
@@ -1143,19 +1355,19 @@
                   <c:v>-1.031628</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>-1.031628</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2.8116979999999998</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.031628</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.031628</c:v>
+                  <c:v>2.8116979999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.031628</c:v>
+                  <c:v>2.8116979999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.031628</c:v>
+                  <c:v>2.8116979999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,6 +1413,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>C1 / C2 Ratio (C1,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t> C2)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1219,7 +1491,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2760000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1361,12 +1633,14 @@
         </c:txPr>
         <c:crossAx val="228419136"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="81834560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1477,6 +1751,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="81834560"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1493,18 +1768,40 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="4"/>
+        <c:idx val="5"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:overlay val="0"/>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14995322700047112"/>
+          <c:y val="0.61691535783915863"/>
+          <c:w val="0.72787115552863602"/>
+          <c:h val="6.0096574466653216E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1513,7 +1810,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3745,6 +4042,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="304742656"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -7141,16 +7439,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>122872</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7307,575 +7605,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="results"/>
-      <sheetName val="n_particles"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="K2">
-            <v>20</v>
-          </cell>
-          <cell r="L2">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="K3">
-            <v>140</v>
-          </cell>
-          <cell r="L3">
-            <v>141</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="K4">
-            <v>176</v>
-          </cell>
-          <cell r="L4">
-            <v>118</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="K5">
-            <v>152</v>
-          </cell>
-          <cell r="L5">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="K6">
-            <v>173</v>
-          </cell>
-          <cell r="L6">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="K7">
-            <v>132</v>
-          </cell>
-          <cell r="L7">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="K8">
-            <v>165</v>
-          </cell>
-          <cell r="L8">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="K9">
-            <v>127</v>
-          </cell>
-          <cell r="L9">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="K10">
-            <v>139</v>
-          </cell>
-          <cell r="L10">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="K11">
-            <v>117</v>
-          </cell>
-          <cell r="L11">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>11</v>
-          </cell>
-          <cell r="K12">
-            <v>422</v>
-          </cell>
-          <cell r="L12">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>12</v>
-          </cell>
-          <cell r="K13">
-            <v>125</v>
-          </cell>
-          <cell r="L13">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>13</v>
-          </cell>
-          <cell r="K14">
-            <v>125</v>
-          </cell>
-          <cell r="L14">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>14</v>
-          </cell>
-          <cell r="K15">
-            <v>128</v>
-          </cell>
-          <cell r="L15">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>15</v>
-          </cell>
-          <cell r="K16">
-            <v>131</v>
-          </cell>
-          <cell r="L16">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>16</v>
-          </cell>
-          <cell r="K17">
-            <v>856</v>
-          </cell>
-          <cell r="L17">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>17</v>
-          </cell>
-          <cell r="K18">
-            <v>148</v>
-          </cell>
-          <cell r="L18">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>18</v>
-          </cell>
-          <cell r="K19">
-            <v>155</v>
-          </cell>
-          <cell r="L19">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>19</v>
-          </cell>
-          <cell r="K20">
-            <v>156</v>
-          </cell>
-          <cell r="L20">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>20</v>
-          </cell>
-          <cell r="K21">
-            <v>183</v>
-          </cell>
-          <cell r="L21">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>21</v>
-          </cell>
-          <cell r="K22">
-            <v>429</v>
-          </cell>
-          <cell r="L22">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>22</v>
-          </cell>
-          <cell r="K23">
-            <v>271</v>
-          </cell>
-          <cell r="L23">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>23</v>
-          </cell>
-          <cell r="K24">
-            <v>149</v>
-          </cell>
-          <cell r="L24">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>24</v>
-          </cell>
-          <cell r="K25">
-            <v>170</v>
-          </cell>
-          <cell r="L25">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>25</v>
-          </cell>
-          <cell r="K26">
-            <v>166</v>
-          </cell>
-          <cell r="L26">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>26</v>
-          </cell>
-          <cell r="K27">
-            <v>135</v>
-          </cell>
-          <cell r="L27">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>27</v>
-          </cell>
-          <cell r="K28">
-            <v>206</v>
-          </cell>
-          <cell r="L28">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>28</v>
-          </cell>
-          <cell r="K29">
-            <v>138</v>
-          </cell>
-          <cell r="L29">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>29</v>
-          </cell>
-          <cell r="K30">
-            <v>176</v>
-          </cell>
-          <cell r="L30">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>30</v>
-          </cell>
-          <cell r="K31">
-            <v>216</v>
-          </cell>
-          <cell r="L31">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>31</v>
-          </cell>
-          <cell r="K32">
-            <v>193</v>
-          </cell>
-          <cell r="L32">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>32</v>
-          </cell>
-          <cell r="K33">
-            <v>146</v>
-          </cell>
-          <cell r="L33">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>33</v>
-          </cell>
-          <cell r="K34">
-            <v>149</v>
-          </cell>
-          <cell r="L34">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>34</v>
-          </cell>
-          <cell r="K35">
-            <v>154</v>
-          </cell>
-          <cell r="L35">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>35</v>
-          </cell>
-          <cell r="K36">
-            <v>143</v>
-          </cell>
-          <cell r="L36">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>36</v>
-          </cell>
-          <cell r="K37">
-            <v>124</v>
-          </cell>
-          <cell r="L37">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>37</v>
-          </cell>
-          <cell r="K38">
-            <v>151</v>
-          </cell>
-          <cell r="L38">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>38</v>
-          </cell>
-          <cell r="K39">
-            <v>151</v>
-          </cell>
-          <cell r="L39">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>39</v>
-          </cell>
-          <cell r="K40">
-            <v>134</v>
-          </cell>
-          <cell r="L40">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>40</v>
-          </cell>
-          <cell r="K41">
-            <v>164</v>
-          </cell>
-          <cell r="L41">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>41</v>
-          </cell>
-          <cell r="K42">
-            <v>272</v>
-          </cell>
-          <cell r="L42">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>42</v>
-          </cell>
-          <cell r="K43">
-            <v>151</v>
-          </cell>
-          <cell r="L43">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>43</v>
-          </cell>
-          <cell r="K44">
-            <v>170</v>
-          </cell>
-          <cell r="L44">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>44</v>
-          </cell>
-          <cell r="K45">
-            <v>143</v>
-          </cell>
-          <cell r="L45">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>45</v>
-          </cell>
-          <cell r="K46">
-            <v>227</v>
-          </cell>
-          <cell r="L46">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>46</v>
-          </cell>
-          <cell r="K47">
-            <v>137</v>
-          </cell>
-          <cell r="L47">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>47</v>
-          </cell>
-          <cell r="K48">
-            <v>154</v>
-          </cell>
-          <cell r="L48">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>48</v>
-          </cell>
-          <cell r="K49">
-            <v>137</v>
-          </cell>
-          <cell r="L49">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>49</v>
-          </cell>
-          <cell r="K50">
-            <v>140</v>
-          </cell>
-          <cell r="L50">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>50</v>
-          </cell>
-          <cell r="K51">
-            <v>179</v>
-          </cell>
-          <cell r="L51">
-            <v>22</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8198,7 +7927,7 @@
   <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="H3" sqref="H3:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8258,13 +7987,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F2">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
         <v>31</v>
-      </c>
-      <c r="H2">
-        <v>25</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -8281,34 +8010,34 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3.2311030000000001</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B3">
-        <v>-4.7388199999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C3">
-        <v>2104.198515</v>
+        <v>-1.031628</v>
       </c>
       <c r="D3">
-        <v>2104.198515</v>
+        <v>-1.031628</v>
       </c>
       <c r="E3">
-        <v>2104.198515</v>
+        <v>-1.031628</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
         <v>1.5</v>
@@ -8319,34 +8048,34 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-0.62842900000000002</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B4">
-        <v>-0.86494300000000002</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C4">
-        <v>1.062521</v>
+        <v>-1.031628</v>
       </c>
       <c r="D4">
-        <v>1.062521</v>
+        <v>-1.031628</v>
       </c>
       <c r="E4">
-        <v>1.062521</v>
+        <v>-1.031628</v>
       </c>
       <c r="F4">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="G4">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
         <v>1.5</v>
@@ -8357,34 +8086,34 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9.5594999999999999E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B5">
-        <v>-0.70604299999999998</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C5">
-        <v>-1.031107</v>
+        <v>-1.031628</v>
       </c>
       <c r="D5">
-        <v>-1.031107</v>
+        <v>-1.031628</v>
       </c>
       <c r="E5">
-        <v>-1.031107</v>
+        <v>-1.031628</v>
       </c>
       <c r="F5">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="G5">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="K5">
         <v>1.5</v>
@@ -8395,10 +8124,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-8.9717000000000005E-2</v>
+        <v>-8.9786000000000005E-2</v>
       </c>
       <c r="B6">
-        <v>0.71263200000000004</v>
+        <v>0.712449</v>
       </c>
       <c r="C6">
         <v>-1.031628</v>
@@ -8410,19 +8139,19 @@
         <v>-1.031628</v>
       </c>
       <c r="F6">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="G6">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>1.5</v>
@@ -8448,13 +8177,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F7">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -8466,15 +8195,15 @@
         <v>1.5</v>
       </c>
       <c r="L7">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-8.9841000000000004E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B8">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C8">
         <v>-1.031628</v>
@@ -8486,13 +8215,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F8">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="G8">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -8524,13 +8253,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F9">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G9">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -8547,10 +8276,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B10">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C10">
         <v>-1.031628</v>
@@ -8562,13 +8291,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F10">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="G10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -8600,13 +8329,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F11">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -8638,13 +8367,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F12">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="G12">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -8676,13 +8405,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F13">
-        <v>422</v>
+        <v>140</v>
       </c>
       <c r="G13">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -8699,10 +8428,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B14">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C14">
         <v>-1.031628</v>
@@ -8714,16 +8443,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F14">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G14">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="J14">
         <v>0.7</v>
@@ -8737,10 +8466,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B15">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C15">
         <v>-1.031628</v>
@@ -8752,19 +8481,19 @@
         <v>-1.031628</v>
       </c>
       <c r="F15">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="K15">
         <v>1.5</v>
@@ -8790,13 +8519,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F16">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="G16">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -8828,16 +8557,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F17">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="G17">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0.7</v>
@@ -8851,10 +8580,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B18">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C18">
         <v>-1.031628</v>
@@ -8866,19 +8595,19 @@
         <v>-1.031628</v>
       </c>
       <c r="F18">
-        <v>856</v>
+        <v>73</v>
       </c>
       <c r="G18">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
         <v>1.5</v>
@@ -8904,13 +8633,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F19">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="G19">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -8927,10 +8656,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B20">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C20">
         <v>-1.031628</v>
@@ -8942,16 +8671,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F20">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="J20">
         <v>0.7</v>
@@ -8965,10 +8694,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B21">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C21">
         <v>-1.031628</v>
@@ -8980,13 +8709,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F21">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G21">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -8995,18 +8724,18 @@
         <v>0.7</v>
       </c>
       <c r="K21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B22">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C22">
         <v>-1.031628</v>
@@ -9018,13 +8747,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F22">
-        <v>183</v>
+        <v>379</v>
       </c>
       <c r="G22">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -9036,7 +8765,7 @@
         <v>1.5</v>
       </c>
       <c r="L22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -9056,13 +8785,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F23">
-        <v>429</v>
+        <v>143</v>
       </c>
       <c r="G23">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -9079,10 +8808,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B24">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C24">
         <v>-1.031628</v>
@@ -9094,16 +8823,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F24">
-        <v>271</v>
+        <v>121</v>
       </c>
       <c r="G24">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H24">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="J24">
         <v>0.7</v>
@@ -9117,10 +8846,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B25">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C25">
         <v>-1.031628</v>
@@ -9132,16 +8861,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F25">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G25">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J25">
         <v>0.7</v>
@@ -9170,13 +8899,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F26">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="G26">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -9185,18 +8914,18 @@
         <v>0.7</v>
       </c>
       <c r="K26">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B27">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C27">
         <v>-1.031628</v>
@@ -9208,13 +8937,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F27">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G27">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -9246,13 +8975,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F28">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="G28">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H28">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -9269,10 +8998,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B29">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C29">
         <v>-1.031628</v>
@@ -9284,13 +9013,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F29">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="G29">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H29">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -9322,13 +9051,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F30">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G30">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H30">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -9345,10 +9074,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B31">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C31">
         <v>-1.031628</v>
@@ -9360,19 +9089,19 @@
         <v>-1.031628</v>
       </c>
       <c r="F31">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="G31">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H31">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K31">
         <v>1.5</v>
@@ -9383,10 +9112,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B32">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C32">
         <v>-1.031628</v>
@@ -9398,13 +9127,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F32">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="G32">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -9413,7 +9142,7 @@
         <v>0.7</v>
       </c>
       <c r="K32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>1.5</v>
@@ -9421,10 +9150,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B33">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C33">
         <v>-1.031628</v>
@@ -9436,13 +9165,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F33">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H33">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -9474,13 +9203,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F34">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H34">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -9512,16 +9241,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F35">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="G35">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H35">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="J35">
         <v>0.7</v>
@@ -9550,13 +9279,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F36">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="G36">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H36">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -9565,36 +9294,36 @@
         <v>0.7</v>
       </c>
       <c r="K36">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>8.9842000000000005E-2</v>
+        <v>3.2311030000000001</v>
       </c>
       <c r="B37">
-        <v>-0.71265599999999996</v>
+        <v>-4.7388199999999996</v>
       </c>
       <c r="C37">
-        <v>-1.031628</v>
+        <v>2104.198515</v>
       </c>
       <c r="D37">
-        <v>-1.031628</v>
+        <v>2104.198515</v>
       </c>
       <c r="E37">
-        <v>-1.031628</v>
+        <v>2104.198515</v>
       </c>
       <c r="F37">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="G37">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H37">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -9626,13 +9355,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F38">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="G38">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -9649,10 +9378,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B39">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C39">
         <v>-1.031628</v>
@@ -9664,16 +9393,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F39">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="G39">
         <v>21</v>
       </c>
       <c r="H39">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J39">
         <v>0.7</v>
@@ -9702,16 +9431,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F40">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G40">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H40">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="J40">
         <v>0.7</v>
@@ -9725,10 +9454,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B41">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C41">
         <v>-1.031628</v>
@@ -9740,16 +9469,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F41">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G41">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H41">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="J41">
         <v>0.7</v>
@@ -9778,16 +9507,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F42">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G42">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H42">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J42">
         <v>0.7</v>
@@ -9801,10 +9530,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B43">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C43">
         <v>-1.031628</v>
@@ -9816,16 +9545,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F43">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="G43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H43">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="J43">
         <v>0.7</v>
@@ -9854,16 +9583,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F44">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="G44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H44">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="J44">
         <v>0.7</v>
@@ -9877,28 +9606,28 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>8.9842000000000005E-2</v>
+        <v>-1.751093</v>
       </c>
       <c r="B45">
-        <v>-0.71265599999999996</v>
+        <v>-0.84887800000000002</v>
       </c>
       <c r="C45">
-        <v>-1.031628</v>
+        <v>2.8116979999999998</v>
       </c>
       <c r="D45">
-        <v>-1.031628</v>
+        <v>888.85515999999996</v>
       </c>
       <c r="E45">
-        <v>-1.031628</v>
+        <v>3571.0455430000002</v>
       </c>
       <c r="F45">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="G45">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H45">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -9907,18 +9636,18 @@
         <v>0.7</v>
       </c>
       <c r="K45">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="L45">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B46">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C46">
         <v>-1.031628</v>
@@ -9930,13 +9659,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F46">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G46">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H46">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -9945,36 +9674,36 @@
         <v>0.7</v>
       </c>
       <c r="K46">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="L46">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>8.9842000000000005E-2</v>
+        <v>-1.751093</v>
       </c>
       <c r="B47">
-        <v>-0.71265599999999996</v>
+        <v>-0.84887800000000002</v>
       </c>
       <c r="C47">
-        <v>-1.031628</v>
+        <v>2.8116979999999998</v>
       </c>
       <c r="D47">
-        <v>-1.031628</v>
+        <v>888.85515999999996</v>
       </c>
       <c r="E47">
-        <v>-1.031628</v>
+        <v>3571.0455430000002</v>
       </c>
       <c r="F47">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="G47">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H47">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -9983,36 +9712,36 @@
         <v>0.7</v>
       </c>
       <c r="K47">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>8.9842000000000005E-2</v>
+        <v>-1.751093</v>
       </c>
       <c r="B48">
-        <v>-0.71265599999999996</v>
+        <v>-0.84887800000000002</v>
       </c>
       <c r="C48">
-        <v>-1.031628</v>
+        <v>2.8116979999999998</v>
       </c>
       <c r="D48">
-        <v>-1.031628</v>
+        <v>888.85515999999996</v>
       </c>
       <c r="E48">
-        <v>-1.031628</v>
+        <v>3571.0455430000002</v>
       </c>
       <c r="F48">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="G48">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H48">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -10024,33 +9753,33 @@
         <v>1.5</v>
       </c>
       <c r="L48">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>8.9842000000000005E-2</v>
+        <v>-1.751093</v>
       </c>
       <c r="B49">
-        <v>-0.71265599999999996</v>
+        <v>-0.84887800000000002</v>
       </c>
       <c r="C49">
-        <v>-1.031628</v>
+        <v>2.8116979999999998</v>
       </c>
       <c r="D49">
-        <v>-1.031628</v>
+        <v>888.85515999999996</v>
       </c>
       <c r="E49">
-        <v>-1.031628</v>
+        <v>3571.0455430000002</v>
       </c>
       <c r="F49">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="G49">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H49">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I49">
         <v>2</v>
@@ -10059,10 +9788,10 @@
         <v>0.7</v>
       </c>
       <c r="K49">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -10082,13 +9811,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F50">
-        <v>137</v>
+        <v>422</v>
       </c>
       <c r="G50">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H50">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -10120,13 +9849,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F51">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G51">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H51">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -10158,13 +9887,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F52">
-        <v>179</v>
+        <v>429</v>
       </c>
       <c r="G52">
         <v>22</v>
       </c>
       <c r="H52">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -10196,16 +9925,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F53">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="G53">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H53">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53">
         <v>0.7</v>
@@ -10219,31 +9948,31 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B54">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C54">
         <v>-1.031628</v>
       </c>
       <c r="D54">
-        <v>-0.74246999999999996</v>
+        <v>-1.031628</v>
       </c>
       <c r="E54">
-        <v>1.482359</v>
+        <v>-1.031628</v>
       </c>
       <c r="F54">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="G54">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H54">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I54">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>0.7</v>
@@ -10257,31 +9986,31 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B55">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C55">
         <v>-1.031628</v>
       </c>
       <c r="D55">
-        <v>-1.0290170000000001</v>
+        <v>-1.031628</v>
       </c>
       <c r="E55">
-        <v>-0.966337</v>
+        <v>-1.031628</v>
       </c>
       <c r="F55">
-        <v>1000</v>
+        <v>179</v>
       </c>
       <c r="G55">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H55">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I55">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="J55">
         <v>0.7</v>
@@ -10304,22 +10033,22 @@
         <v>-1.031628</v>
       </c>
       <c r="D56">
-        <v>-1.031628</v>
+        <v>-0.99615399999999998</v>
       </c>
       <c r="E56">
-        <v>-1.031628</v>
+        <v>-0.144762</v>
       </c>
       <c r="F56">
-        <v>434</v>
+        <v>1000</v>
       </c>
       <c r="G56">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H56">
         <v>25</v>
       </c>
       <c r="I56">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="J56">
         <v>0.7</v>
@@ -10333,10 +10062,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B57">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C57">
         <v>-1.031628</v>
@@ -10348,16 +10077,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F57">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G57">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H57">
         <v>25</v>
       </c>
       <c r="I57">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="J57">
         <v>0.7</v>
@@ -10371,10 +10100,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B58">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C58">
         <v>-1.031628</v>
@@ -10386,16 +10115,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F58">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G58">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H58">
         <v>25</v>
       </c>
       <c r="I58">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="J58">
         <v>0.7</v>
@@ -10409,10 +10138,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B59">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C59">
         <v>-1.031628</v>
@@ -10424,16 +10153,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F59">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="G59">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H59">
         <v>25</v>
       </c>
       <c r="I59">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="J59">
         <v>0.7</v>
@@ -10447,22 +10176,22 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B60">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C60">
         <v>-1.031628</v>
       </c>
       <c r="D60">
-        <v>-0.99615399999999998</v>
+        <v>-1.031628</v>
       </c>
       <c r="E60">
-        <v>-0.144762</v>
+        <v>-1.031628</v>
       </c>
       <c r="F60">
-        <v>1000</v>
+        <v>171</v>
       </c>
       <c r="G60">
         <v>22</v>
@@ -10471,7 +10200,7 @@
         <v>25</v>
       </c>
       <c r="I60">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="J60">
         <v>0.7</v>
@@ -10485,10 +10214,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B61">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C61">
         <v>-1.031628</v>
@@ -10500,25 +10229,25 @@
         <v>-1.031628</v>
       </c>
       <c r="F61">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="G61">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H61">
         <v>25</v>
       </c>
       <c r="I61">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="J61">
         <v>0.7</v>
       </c>
       <c r="K61">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="L61">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -10538,22 +10267,22 @@
         <v>-1.031628</v>
       </c>
       <c r="F62">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="G62">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H62">
         <v>25</v>
       </c>
       <c r="I62">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="J62">
         <v>0.7</v>
       </c>
       <c r="K62">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="L62">
         <v>1.5</v>
@@ -10576,16 +10305,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F63">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G63">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H63">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63">
         <v>0.7</v>
@@ -10599,10 +10328,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B64">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C64">
         <v>-1.031628</v>
@@ -10614,16 +10343,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F64">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G64">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H64">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I64">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="J64">
         <v>0.7</v>
@@ -10652,16 +10381,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F65">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G65">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H65">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I65">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="J65">
         <v>0.7</v>
@@ -10675,10 +10404,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B66">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C66">
         <v>-1.031628</v>
@@ -10690,16 +10419,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F66">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="G66">
         <v>23</v>
       </c>
       <c r="H66">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I66">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="J66">
         <v>0.7</v>
@@ -10728,16 +10457,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F67">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="G67">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H67">
         <v>25</v>
       </c>
       <c r="I67">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J67">
         <v>0.7</v>
@@ -10751,10 +10480,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B68">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C68">
         <v>-1.031628</v>
@@ -10766,16 +10495,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F68">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G68">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H68">
         <v>25</v>
       </c>
       <c r="I68">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J68">
         <v>0.7</v>
@@ -10789,10 +10518,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B69">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C69">
         <v>-1.031628</v>
@@ -10804,7 +10533,7 @@
         <v>-1.031628</v>
       </c>
       <c r="F69">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G69">
         <v>23</v>
@@ -10813,7 +10542,7 @@
         <v>25</v>
       </c>
       <c r="I69">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="J69">
         <v>0.7</v>
@@ -10842,22 +10571,22 @@
         <v>-1.031628</v>
       </c>
       <c r="F70">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G70">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H70">
         <v>25</v>
       </c>
       <c r="I70">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="J70">
         <v>0.7</v>
       </c>
       <c r="K70">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L70">
         <v>1.5</v>
@@ -10865,10 +10594,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B71">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C71">
         <v>-1.031628</v>
@@ -10880,16 +10609,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F71">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="G71">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H71">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I71">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J71">
         <v>0.7</v>
@@ -10918,16 +10647,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F72">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="G72">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H72">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J72">
         <v>0.7</v>
@@ -10941,10 +10670,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B73">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C73">
         <v>-1.031628</v>
@@ -10956,16 +10685,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F73">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G73">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H73">
         <v>25</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="J73">
         <v>0.7</v>
@@ -10994,16 +10723,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F74">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G74">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H74">
         <v>25</v>
       </c>
       <c r="I74">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="J74">
         <v>0.7</v>
@@ -11032,33 +10761,33 @@
         <v>-1.031628</v>
       </c>
       <c r="F75">
-        <v>131</v>
+        <v>678</v>
       </c>
       <c r="G75">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H75">
         <v>25</v>
       </c>
       <c r="I75">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="J75">
         <v>0.7</v>
       </c>
       <c r="K75">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B76">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C76">
         <v>-1.031628</v>
@@ -11070,25 +10799,25 @@
         <v>-1.031628</v>
       </c>
       <c r="F76">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="G76">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H76">
         <v>25</v>
       </c>
       <c r="I76">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="J76">
         <v>0.7</v>
       </c>
       <c r="K76">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L76">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -11108,25 +10837,25 @@
         <v>-1.031628</v>
       </c>
       <c r="F77">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="G77">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H77">
         <v>25</v>
       </c>
       <c r="I77">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="J77">
         <v>0.7</v>
       </c>
       <c r="K77">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -11146,16 +10875,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F78">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G78">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H78">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J78">
         <v>0.7</v>
@@ -11184,16 +10913,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F79">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="G79">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H79">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I79">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="J79">
         <v>0.7</v>
@@ -11207,10 +10936,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B80">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C80">
         <v>-1.031628</v>
@@ -11222,16 +10951,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F80">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G80">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H80">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I80">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="J80">
         <v>0.7</v>
@@ -11260,16 +10989,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F81">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G81">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H81">
         <v>25</v>
       </c>
       <c r="I81">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>0.7</v>
@@ -11283,10 +11012,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B82">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C82">
         <v>-1.031628</v>
@@ -11298,16 +11027,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F82">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G82">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H82">
         <v>25</v>
       </c>
       <c r="I82">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="J82">
         <v>0.7</v>
@@ -11374,16 +11103,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F84">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="G84">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H84">
         <v>25</v>
       </c>
       <c r="I84">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J84">
         <v>0.7</v>
@@ -11412,16 +11141,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F85">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G85">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H85">
         <v>25</v>
       </c>
       <c r="I85">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J85">
         <v>0.7</v>
@@ -11435,10 +11164,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B86">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C86">
         <v>-1.031628</v>
@@ -11450,16 +11179,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F86">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G86">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H86">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I86">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="J86">
         <v>0.7</v>
@@ -11488,16 +11217,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F87">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G87">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H87">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I87">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="J87">
         <v>0.7</v>
@@ -11526,16 +11255,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F88">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G88">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H88">
         <v>25</v>
       </c>
       <c r="I88">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="J88">
         <v>0.7</v>
@@ -11567,13 +11296,13 @@
         <v>167</v>
       </c>
       <c r="G89">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H89">
         <v>25</v>
       </c>
       <c r="I89">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="J89">
         <v>0.7</v>
@@ -11602,54 +11331,54 @@
         <v>-1.031628</v>
       </c>
       <c r="F90">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G90">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H90">
         <v>25</v>
       </c>
       <c r="I90">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="J90">
         <v>0.7</v>
       </c>
       <c r="K90">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B91">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C91">
         <v>-1.031628</v>
       </c>
       <c r="D91">
-        <v>-1.031628</v>
+        <v>-0.99601399999999995</v>
       </c>
       <c r="E91">
-        <v>-1.031628</v>
+        <v>-0.14127000000000001</v>
       </c>
       <c r="F91">
-        <v>163</v>
+        <v>1000</v>
       </c>
       <c r="G91">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H91">
         <v>25</v>
       </c>
       <c r="I91">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="J91">
         <v>0.7</v>
@@ -11658,7 +11387,7 @@
         <v>1.5</v>
       </c>
       <c r="L91">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -11678,16 +11407,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F92">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G92">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H92">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I92">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="J92">
         <v>0.7</v>
@@ -11716,16 +11445,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F93">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="G93">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H93">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J93">
         <v>0.7</v>
@@ -11739,10 +11468,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B94">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C94">
         <v>-1.031628</v>
@@ -11754,16 +11483,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F94">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G94">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H94">
         <v>25</v>
       </c>
       <c r="I94">
-        <v>4.0999999999999996</v>
+        <v>1.7</v>
       </c>
       <c r="J94">
         <v>0.7</v>
@@ -11792,16 +11521,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F95">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="G95">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H95">
         <v>25</v>
       </c>
       <c r="I95">
-        <v>4.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J95">
         <v>0.7</v>
@@ -11830,16 +11559,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F96">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G96">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H96">
         <v>25</v>
       </c>
       <c r="I96">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J96">
         <v>0.7</v>
@@ -11853,10 +11582,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B97">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C97">
         <v>-1.031628</v>
@@ -11868,33 +11597,33 @@
         <v>-1.031628</v>
       </c>
       <c r="F97">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="G97">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H97">
         <v>25</v>
       </c>
       <c r="I97">
-        <v>4.4000000000000004</v>
+        <v>2</v>
       </c>
       <c r="J97">
         <v>0.7</v>
       </c>
       <c r="K97">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B98">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C98">
         <v>-1.031628</v>
@@ -11906,25 +11635,25 @@
         <v>-1.031628</v>
       </c>
       <c r="F98">
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="G98">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H98">
         <v>25</v>
       </c>
       <c r="I98">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="J98">
         <v>0.7</v>
       </c>
       <c r="K98">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L98">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -11944,16 +11673,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F99">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="G99">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H99">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I99">
-        <v>4.5999999999999996</v>
+        <v>2</v>
       </c>
       <c r="J99">
         <v>0.7</v>
@@ -11967,10 +11696,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B100">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C100">
         <v>-1.031628</v>
@@ -11982,16 +11711,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F100">
-        <v>163</v>
+        <v>856</v>
       </c>
       <c r="G100">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H100">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I100">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="J100">
         <v>0.7</v>
@@ -12020,16 +11749,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F101">
-        <v>163</v>
+        <v>271</v>
       </c>
       <c r="G101">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H101">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I101">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="J101">
         <v>0.7</v>
@@ -12043,10 +11772,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B102">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C102">
         <v>-1.031628</v>
@@ -12058,7 +11787,7 @@
         <v>-1.031628</v>
       </c>
       <c r="F102">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="G102">
         <v>28</v>
@@ -12067,7 +11796,7 @@
         <v>25</v>
       </c>
       <c r="I102">
-        <v>4.9000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="J102">
         <v>0.7</v>
@@ -12096,16 +11825,16 @@
         <v>-1.031628</v>
       </c>
       <c r="F103">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="G103">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H103">
         <v>25</v>
       </c>
       <c r="I103">
-        <v>5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J103">
         <v>0.7</v>
@@ -12119,10 +11848,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>-8.9786000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B104">
-        <v>0.712449</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C104">
         <v>-1.031628</v>
@@ -12134,19 +11863,19 @@
         <v>-1.031628</v>
       </c>
       <c r="F104">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="G104">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H104">
         <v>25</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K104">
         <v>1.5</v>
@@ -12172,19 +11901,19 @@
         <v>-1.031628</v>
       </c>
       <c r="F105">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="G105">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H105">
         <v>25</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J105">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="K105">
         <v>1.5</v>
@@ -12195,10 +11924,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B106">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C106">
         <v>-1.031628</v>
@@ -12210,19 +11939,19 @@
         <v>-1.031628</v>
       </c>
       <c r="F106">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="G106">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>25</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="J106">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="K106">
         <v>1.5</v>
@@ -12248,19 +11977,19 @@
         <v>-1.031628</v>
       </c>
       <c r="F107">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="G107">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>25</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="J107">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="K107">
         <v>1.5</v>
@@ -12286,19 +12015,19 @@
         <v>-1.031628</v>
       </c>
       <c r="F108">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="G108">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>25</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J108">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="K108">
         <v>1.5</v>
@@ -12324,19 +12053,19 @@
         <v>-1.031628</v>
       </c>
       <c r="F109">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="G109">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>25</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="J109">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K109">
         <v>1.5</v>
@@ -12347,10 +12076,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B110">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C110">
         <v>-1.031628</v>
@@ -12362,19 +12091,19 @@
         <v>-1.031628</v>
       </c>
       <c r="F110">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="G110">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>25</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="J110">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K110">
         <v>1.5</v>
@@ -12432,16 +12161,16 @@
         <v>-1.031628</v>
       </c>
       <c r="D112">
-        <v>-1.0217400000000001</v>
+        <v>-1.031628</v>
       </c>
       <c r="E112">
-        <v>-0.78441899999999998</v>
+        <v>-1.031628</v>
       </c>
       <c r="F112">
-        <v>1000</v>
+        <v>166</v>
       </c>
       <c r="G112">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>25</v>
@@ -12450,7 +12179,7 @@
         <v>2</v>
       </c>
       <c r="J112">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K112">
         <v>1.5</v>
@@ -12470,25 +12199,25 @@
         <v>-1.031628</v>
       </c>
       <c r="D113">
-        <v>-0.79518500000000003</v>
+        <v>-1.031628</v>
       </c>
       <c r="E113">
-        <v>1.9981070000000001</v>
+        <v>-1.031628</v>
       </c>
       <c r="F113">
-        <v>1000</v>
+        <v>206</v>
       </c>
       <c r="G113">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="K113">
         <v>1.5</v>
@@ -12499,34 +12228,34 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>-8.9597999999999997E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B114">
-        <v>0.71324399999999999</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C114">
-        <v>-1.031625</v>
+        <v>-1.031628</v>
       </c>
       <c r="D114">
-        <v>62.432335000000002</v>
+        <v>-1.031628</v>
       </c>
       <c r="E114">
-        <v>1163.2496630000001</v>
+        <v>-1.031628</v>
       </c>
       <c r="F114">
-        <v>1000</v>
+        <v>434</v>
       </c>
       <c r="G114">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>25</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K114">
         <v>1.5</v>
@@ -12537,10 +12266,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B115">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C115">
         <v>-1.031628</v>
@@ -12552,10 +12281,10 @@
         <v>-1.031628</v>
       </c>
       <c r="F115">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="G115">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>25</v>
@@ -12567,18 +12296,18 @@
         <v>0.7</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L115">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B116">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C116">
         <v>-1.031628</v>
@@ -12590,33 +12319,33 @@
         <v>-1.031628</v>
       </c>
       <c r="F116">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="G116">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>25</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="J116">
         <v>0.7</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L116">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B117">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C117">
         <v>-1.031628</v>
@@ -12628,22 +12357,22 @@
         <v>-1.031628</v>
       </c>
       <c r="F117">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="G117">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>25</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J117">
         <v>0.7</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
         <v>1.5</v>
@@ -12651,10 +12380,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B118">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C118">
         <v>-1.031628</v>
@@ -12666,10 +12395,10 @@
         <v>-1.031628</v>
       </c>
       <c r="F118">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="G118">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>25</v>
@@ -12681,33 +12410,33 @@
         <v>0.7</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>-1.751093</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B119">
-        <v>-0.84887800000000002</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C119">
-        <v>2.8116979999999998</v>
+        <v>-1.031628</v>
       </c>
       <c r="D119">
-        <v>888.85515999999996</v>
+        <v>-1.031628</v>
       </c>
       <c r="E119">
-        <v>3571.0455430000002</v>
+        <v>-1.031628</v>
       </c>
       <c r="F119">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G119">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H119">
         <v>25</v>
@@ -12719,18 +12448,18 @@
         <v>0.7</v>
       </c>
       <c r="K119">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9717000000000005E-2</v>
       </c>
       <c r="B120">
-        <v>-0.71265599999999996</v>
+        <v>0.71263200000000004</v>
       </c>
       <c r="C120">
         <v>-1.031628</v>
@@ -12742,13 +12471,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F120">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="G120">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H120">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="I120">
         <v>2</v>
@@ -12757,18 +12486,18 @@
         <v>0.7</v>
       </c>
       <c r="K120">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L120">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B121">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C121">
         <v>-1.031628</v>
@@ -12780,25 +12509,25 @@
         <v>-1.031628</v>
       </c>
       <c r="F121">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="G121">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>25</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J121">
         <v>0.7</v>
       </c>
       <c r="K121">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -12818,10 +12547,10 @@
         <v>-1.031628</v>
       </c>
       <c r="F122">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="G122">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>25</v>
@@ -12833,18 +12562,18 @@
         <v>0.7</v>
       </c>
       <c r="K122">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L122">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B123">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C123">
         <v>-1.031628</v>
@@ -12856,10 +12585,10 @@
         <v>-1.031628</v>
       </c>
       <c r="F123">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="G123">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>25</v>
@@ -12871,36 +12600,36 @@
         <v>0.7</v>
       </c>
       <c r="K123">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>-1.751093</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B124">
-        <v>-0.84887800000000002</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C124">
-        <v>2.8116979999999998</v>
+        <v>-1.031628</v>
       </c>
       <c r="D124">
-        <v>888.85515999999996</v>
+        <v>-1.031628</v>
       </c>
       <c r="E124">
-        <v>3571.0455430000002</v>
+        <v>-1.031628</v>
       </c>
       <c r="F124">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="G124">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -12909,56 +12638,56 @@
         <v>0.7</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B125">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C125">
         <v>-1.031628</v>
       </c>
       <c r="D125">
-        <v>-1.031628</v>
+        <v>-1.0290170000000001</v>
       </c>
       <c r="E125">
-        <v>-1.031628</v>
+        <v>-0.966337</v>
       </c>
       <c r="F125">
-        <v>678</v>
+        <v>1000</v>
       </c>
       <c r="G125">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H125">
         <v>25</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J125">
         <v>0.7</v>
       </c>
       <c r="K125">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L125">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B126">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C126">
         <v>-1.031628</v>
@@ -12970,33 +12699,33 @@
         <v>-1.031628</v>
       </c>
       <c r="F126">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="G126">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>25</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J126">
         <v>0.7</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L126">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B127">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C127">
         <v>-1.031628</v>
@@ -13008,22 +12737,22 @@
         <v>-1.031628</v>
       </c>
       <c r="F127">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="G127">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H127">
         <v>25</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="J127">
         <v>0.7</v>
       </c>
       <c r="K127">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L127">
         <v>1.5</v>
@@ -13031,10 +12760,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B128">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C128">
         <v>-1.031628</v>
@@ -13046,54 +12775,54 @@
         <v>-1.031628</v>
       </c>
       <c r="F128">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G128">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H128">
         <v>25</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="J128">
         <v>0.7</v>
       </c>
       <c r="K128">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L128">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>-1.751093</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B129">
-        <v>-0.84887800000000002</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C129">
-        <v>2.8116979999999998</v>
+        <v>-1.031628</v>
       </c>
       <c r="D129">
-        <v>888.85515999999996</v>
+        <v>-0.74246999999999996</v>
       </c>
       <c r="E129">
-        <v>3571.0455430000002</v>
+        <v>1.482359</v>
       </c>
       <c r="F129">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G129">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>25</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J129">
         <v>0.7</v>
@@ -13102,15 +12831,15 @@
         <v>1.5</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B130">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C130">
         <v>-1.031628</v>
@@ -13122,13 +12851,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F130">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="G130">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I130">
         <v>2</v>
@@ -13140,15 +12869,15 @@
         <v>1.5</v>
       </c>
       <c r="L130">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B131">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C131">
         <v>-1.031628</v>
@@ -13160,13 +12889,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F131">
-        <v>379</v>
+        <v>183</v>
       </c>
       <c r="G131">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I131">
         <v>2</v>
@@ -13178,15 +12907,15 @@
         <v>1.5</v>
       </c>
       <c r="L131">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>-8.9842000000000005E-2</v>
+        <v>8.9842000000000005E-2</v>
       </c>
       <c r="B132">
-        <v>0.71265599999999996</v>
+        <v>-0.71265599999999996</v>
       </c>
       <c r="C132">
         <v>-1.031628</v>
@@ -13198,13 +12927,13 @@
         <v>-1.031628</v>
       </c>
       <c r="F132">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G132">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I132">
         <v>2</v>
@@ -13221,7 +12950,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>-8.9842000000000005E-2</v>
+        <v>-8.9841000000000004E-2</v>
       </c>
       <c r="B133">
         <v>0.71265599999999996</v>
@@ -13230,19 +12959,19 @@
         <v>-1.031628</v>
       </c>
       <c r="D133">
-        <v>-0.99601399999999995</v>
+        <v>-1.031628</v>
       </c>
       <c r="E133">
-        <v>-0.14127000000000001</v>
+        <v>-1.031628</v>
       </c>
       <c r="F133">
-        <v>1000</v>
+        <v>132</v>
       </c>
       <c r="G133">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H133">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -13254,30 +12983,30 @@
         <v>1.5</v>
       </c>
       <c r="L133">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>-1.751093</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B134">
-        <v>-0.84887800000000002</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C134">
-        <v>2.8116979999999998</v>
+        <v>-1.031628</v>
       </c>
       <c r="D134">
-        <v>888.85515999999996</v>
+        <v>-1.0217400000000001</v>
       </c>
       <c r="E134">
-        <v>3571.0455430000002</v>
+        <v>-0.78441899999999998</v>
       </c>
       <c r="F134">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G134">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H134">
         <v>25</v>
@@ -13286,36 +13015,36 @@
         <v>2</v>
       </c>
       <c r="J134">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K134">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>8.9842000000000005E-2</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="B135">
-        <v>-0.71265599999999996</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="C135">
         <v>-1.031628</v>
       </c>
       <c r="D135">
-        <v>-1.031628</v>
+        <v>-0.79518500000000003</v>
       </c>
       <c r="E135">
-        <v>-1.031628</v>
+        <v>1.9981070000000001</v>
       </c>
       <c r="F135">
-        <v>126</v>
+        <v>1000</v>
       </c>
       <c r="G135">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="H135">
         <v>25</v>
@@ -13324,39 +13053,39 @@
         <v>2</v>
       </c>
       <c r="J135">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L135">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>8.9842000000000005E-2</v>
+        <v>9.5594999999999999E-2</v>
       </c>
       <c r="B136">
-        <v>-0.71265599999999996</v>
+        <v>-0.70604299999999998</v>
       </c>
       <c r="C136">
-        <v>-1.031628</v>
+        <v>-1.031107</v>
       </c>
       <c r="D136">
-        <v>-1.031628</v>
+        <v>-1.031107</v>
       </c>
       <c r="E136">
-        <v>-1.031628</v>
+        <v>-1.031107</v>
       </c>
       <c r="F136">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="G136">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="H136">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I136">
         <v>2</v>
@@ -13365,36 +13094,36 @@
         <v>0.7</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L136">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>8.9842000000000005E-2</v>
+        <v>-0.62842900000000002</v>
       </c>
       <c r="B137">
-        <v>-0.71265599999999996</v>
+        <v>-0.86494300000000002</v>
       </c>
       <c r="C137">
-        <v>-1.031628</v>
+        <v>1.062521</v>
       </c>
       <c r="D137">
-        <v>-1.031628</v>
+        <v>1.062521</v>
       </c>
       <c r="E137">
-        <v>-1.031628</v>
+        <v>1.062521</v>
       </c>
       <c r="F137">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="G137">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="H137">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -13403,7 +13132,7 @@
         <v>0.7</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L137">
         <v>1.5</v>
@@ -13411,25 +13140,25 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>-8.9842000000000005E-2</v>
+        <v>-8.9597999999999997E-2</v>
       </c>
       <c r="B138">
-        <v>0.71265599999999996</v>
+        <v>0.71324399999999999</v>
       </c>
       <c r="C138">
-        <v>-1.031628</v>
+        <v>-1.031625</v>
       </c>
       <c r="D138">
-        <v>-1.031628</v>
+        <v>62.432335000000002</v>
       </c>
       <c r="E138">
-        <v>-1.031628</v>
+        <v>1163.2496630000001</v>
       </c>
       <c r="F138">
-        <v>311</v>
+        <v>1000</v>
       </c>
       <c r="G138">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="H138">
         <v>25</v>
@@ -13438,32 +13167,36 @@
         <v>2</v>
       </c>
       <c r="J138">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L138">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{92EF80B2-EAA2-4C46-A8D0-E60F86160BE3}"/>
+  <autoFilter ref="A1:L1" xr:uid="{92EF80B2-EAA2-4C46-A8D0-E60F86160BE3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L138">
+      <sortCondition ref="G1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0322D51F-B60A-440E-9C88-C63FA7320B66}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -13479,32 +13212,32 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
       <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
@@ -13520,19 +13253,20 @@
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
-      <c r="F2" t="str">
-        <f>_xlfn.CONCAT("(",TEXT(D2,"0.0"),", ",TEXT(E2,"0.0"),")")</f>
-        <v>(0.0, 0.5)</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="1">
+        <f>D2/E2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT(TEXT(F2,"0.0"),"  (",TEXT(D2,"0.0"),", ",TEXT(E2,"0.0"),")")</f>
+        <v>0.0  (0.0, 0.5)</v>
+      </c>
+      <c r="H2">
         <v>8.9842000000000005E-2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.71265599999999996</v>
       </c>
-      <c r="I2">
-        <v>-1.031628</v>
-      </c>
       <c r="J2">
         <v>-1.031628</v>
       </c>
@@ -13540,13 +13274,16 @@
         <v>-1.031628</v>
       </c>
       <c r="L2">
+        <v>-1.031628</v>
+      </c>
+      <c r="M2">
         <v>83</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25</v>
       </c>
@@ -13562,19 +13299,20 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F25" si="0">_xlfn.CONCAT("(",TEXT(D3,"0.0"),", ",TEXT(E3,"0.0"),")")</f>
-        <v>(0.0, 1.0)</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="1">
+        <f>D3/E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G25" si="0">_xlfn.CONCAT(TEXT(F3,"0.0"),"  (",TEXT(D3,"0.0"),", ",TEXT(E3,"0.0"),")")</f>
+        <v>0.0  (0.0, 1.0)</v>
+      </c>
+      <c r="H3">
         <v>-8.9842000000000005E-2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.71265599999999996</v>
       </c>
-      <c r="I3">
-        <v>-1.031628</v>
-      </c>
       <c r="J3">
         <v>-1.031628</v>
       </c>
@@ -13582,13 +13320,16 @@
         <v>-1.031628</v>
       </c>
       <c r="L3">
+        <v>-1.031628</v>
+      </c>
+      <c r="M3">
         <v>101</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>25</v>
       </c>
@@ -13604,19 +13345,20 @@
       <c r="E4" s="1">
         <v>1.5</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="1">
+        <f>D4/E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>(0.0, 1.5)</v>
-      </c>
-      <c r="G4">
+        <v>0.0  (0.0, 1.5)</v>
+      </c>
+      <c r="H4">
         <v>-8.9842000000000005E-2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.71265599999999996</v>
       </c>
-      <c r="I4">
-        <v>-1.031628</v>
-      </c>
       <c r="J4">
         <v>-1.031628</v>
       </c>
@@ -13624,13 +13366,16 @@
         <v>-1.031628</v>
       </c>
       <c r="L4">
+        <v>-1.031628</v>
+      </c>
+      <c r="M4">
         <v>120</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25</v>
       </c>
@@ -13646,19 +13391,20 @@
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="1">
+        <f>D5/E5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>(0.0, 2.0)</v>
-      </c>
-      <c r="G5">
+        <v>0.0  (0.0, 2.0)</v>
+      </c>
+      <c r="H5">
         <v>8.9842000000000005E-2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.71265599999999996</v>
       </c>
-      <c r="I5">
-        <v>-1.031628</v>
-      </c>
       <c r="J5">
         <v>-1.031628</v>
       </c>
@@ -13666,13 +13412,16 @@
         <v>-1.031628</v>
       </c>
       <c r="L5">
+        <v>-1.031628</v>
+      </c>
+      <c r="M5">
         <v>149</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>25</v>
       </c>
@@ -13686,35 +13435,39 @@
         <v>0.5</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" t="str">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <f>D6/E6</f>
+        <v>0.25</v>
+      </c>
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>(0.5, 0.0)</v>
-      </c>
-      <c r="G6">
-        <v>-1.751093</v>
+        <v>0.3  (0.5, 2.0)</v>
       </c>
       <c r="H6">
-        <v>-0.84887800000000002</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="I6">
-        <v>2.8116979999999998</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="J6">
-        <v>888.85515999999996</v>
+        <v>-1.031628</v>
       </c>
       <c r="K6">
-        <v>3571.0455430000002</v>
+        <v>-1.031628</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>-1.031628</v>
       </c>
       <c r="M6">
+        <v>152</v>
+      </c>
+      <c r="N6">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -13728,20 +13481,21 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F7" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="1">
+        <f>D7/E7</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>(0.5, 0.5)</v>
-      </c>
-      <c r="G7">
-        <v>8.9842000000000005E-2</v>
+        <v>0.3  (0.5, 1.5)</v>
       </c>
       <c r="H7">
-        <v>-0.71265599999999996</v>
+        <v>-8.9842000000000005E-2</v>
       </c>
       <c r="I7">
-        <v>-1.031628</v>
+        <v>0.71265599999999996</v>
       </c>
       <c r="J7">
         <v>-1.031628</v>
@@ -13750,13 +13504,16 @@
         <v>-1.031628</v>
       </c>
       <c r="L7">
-        <v>90</v>
+        <v>-1.031628</v>
       </c>
       <c r="M7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="N7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
@@ -13772,19 +13529,20 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="1">
+        <f>D8/E8</f>
+        <v>0.5</v>
+      </c>
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>(0.5, 1.0)</v>
-      </c>
-      <c r="G8">
+        <v>0.5  (0.5, 1.0)</v>
+      </c>
+      <c r="H8">
         <v>-8.9842000000000005E-2</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.71265599999999996</v>
       </c>
-      <c r="I8">
-        <v>-1.031628</v>
-      </c>
       <c r="J8">
         <v>-1.031628</v>
       </c>
@@ -13792,13 +13550,16 @@
         <v>-1.031628</v>
       </c>
       <c r="L8">
+        <v>-1.031628</v>
+      </c>
+      <c r="M8">
         <v>96</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>25</v>
       </c>
@@ -13809,24 +13570,25 @@
         <v>0.7</v>
       </c>
       <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <f>D9/E9</f>
         <v>0.5</v>
       </c>
-      <c r="E9" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>(0.5, 1.5)</v>
-      </c>
-      <c r="G9">
+        <v>0.5  (1.0, 2.0)</v>
+      </c>
+      <c r="H9">
         <v>-8.9842000000000005E-2</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.71265599999999996</v>
       </c>
-      <c r="I9">
-        <v>-1.031628</v>
-      </c>
       <c r="J9">
         <v>-1.031628</v>
       </c>
@@ -13834,13 +13596,16 @@
         <v>-1.031628</v>
       </c>
       <c r="L9">
-        <v>117</v>
+        <v>-1.031628</v>
       </c>
       <c r="M9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="N9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>25</v>
       </c>
@@ -13851,108 +13616,117 @@
         <v>0.7</v>
       </c>
       <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="1">
+        <f>D10/E10</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>0.7  (1.0, 1.5)</v>
+      </c>
+      <c r="H10">
+        <v>-8.9842000000000005E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.71265599999999996</v>
+      </c>
+      <c r="J10">
+        <v>-1.031628</v>
+      </c>
+      <c r="K10">
+        <v>-1.031628</v>
+      </c>
+      <c r="L10">
+        <v>-1.031628</v>
+      </c>
+      <c r="M10">
+        <v>119</v>
+      </c>
+      <c r="N10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11/E11</f>
+        <v>0.75</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.8  (1.5, 2.0)</v>
+      </c>
+      <c r="H11">
+        <v>-8.9842000000000005E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.71265599999999996</v>
+      </c>
+      <c r="J11">
+        <v>-1.031628</v>
+      </c>
+      <c r="K11">
+        <v>-0.99601399999999995</v>
+      </c>
+      <c r="L11">
+        <v>-0.14127000000000001</v>
+      </c>
+      <c r="M11">
+        <v>1000</v>
+      </c>
+      <c r="N11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>(0.5, 2.0)</v>
-      </c>
-      <c r="G10">
-        <v>-8.9842000000000005E-2</v>
-      </c>
-      <c r="H10">
-        <v>0.71265599999999996</v>
-      </c>
-      <c r="I10">
-        <v>-1.031628</v>
-      </c>
-      <c r="J10">
-        <v>-1.031628</v>
-      </c>
-      <c r="K10">
-        <v>-1.031628</v>
-      </c>
-      <c r="L10">
-        <v>152</v>
-      </c>
-      <c r="M10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0.7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>(1.0, 0.0)</v>
-      </c>
-      <c r="G11">
-        <v>-1.751093</v>
-      </c>
-      <c r="H11">
-        <v>-0.84887800000000002</v>
-      </c>
-      <c r="I11">
-        <v>2.8116979999999998</v>
-      </c>
-      <c r="J11">
-        <v>888.85515999999996</v>
-      </c>
-      <c r="K11">
-        <v>3571.0455430000002</v>
-      </c>
-      <c r="L11">
-        <v>20</v>
-      </c>
-      <c r="M11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>25</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>0.7</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>0.5</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="1">
+        <f>D12/E12</f>
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>(1.0, 0.5)</v>
-      </c>
-      <c r="G12">
+        <v>1.0  (0.5, 0.5)</v>
+      </c>
+      <c r="H12">
         <v>8.9842000000000005E-2</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.71265599999999996</v>
       </c>
-      <c r="I12">
-        <v>-1.031628</v>
-      </c>
       <c r="J12">
         <v>-1.031628</v>
       </c>
@@ -13960,13 +13734,16 @@
         <v>-1.031628</v>
       </c>
       <c r="L12">
-        <v>678</v>
+        <v>-1.031628</v>
       </c>
       <c r="M12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="N12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>25</v>
       </c>
@@ -13982,19 +13759,20 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13" s="1">
+        <f>D13/E13</f>
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>(1.0, 1.0)</v>
-      </c>
-      <c r="G13">
+        <v>1.0  (1.0, 1.0)</v>
+      </c>
+      <c r="H13">
         <v>-8.9842000000000005E-2</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.71265599999999996</v>
       </c>
-      <c r="I13">
-        <v>-1.031628</v>
-      </c>
       <c r="J13">
         <v>-1.031628</v>
       </c>
@@ -14002,13 +13780,16 @@
         <v>-1.031628</v>
       </c>
       <c r="L13">
+        <v>-1.031628</v>
+      </c>
+      <c r="M13">
         <v>115</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>25</v>
       </c>
@@ -14019,24 +13800,25 @@
         <v>0.7</v>
       </c>
       <c r="D14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="1">
+        <f>D14/E14</f>
         <v>1</v>
       </c>
-      <c r="E14" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F14" t="str">
+      <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>(1.0, 1.5)</v>
-      </c>
-      <c r="G14">
+        <v>1.0  (1.5, 1.5)</v>
+      </c>
+      <c r="H14">
         <v>-8.9842000000000005E-2</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.71265599999999996</v>
       </c>
-      <c r="I14">
-        <v>-1.031628</v>
-      </c>
       <c r="J14">
         <v>-1.031628</v>
       </c>
@@ -14044,13 +13826,16 @@
         <v>-1.031628</v>
       </c>
       <c r="L14">
-        <v>119</v>
+        <v>-1.031628</v>
       </c>
       <c r="M14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="N14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -14061,24 +13846,25 @@
         <v>0.7</v>
       </c>
       <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <f>D15/E15</f>
         <v>1</v>
       </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" t="str">
+      <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>(1.0, 2.0)</v>
-      </c>
-      <c r="G15">
+        <v>1.0  (2.0, 2.0)</v>
+      </c>
+      <c r="H15">
         <v>-8.9842000000000005E-2</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.71265599999999996</v>
       </c>
-      <c r="I15">
-        <v>-1.031628</v>
-      </c>
       <c r="J15">
         <v>-1.031628</v>
       </c>
@@ -14086,434 +13872,477 @@
         <v>-1.031628</v>
       </c>
       <c r="L15">
-        <v>156</v>
+        <v>-1.031628</v>
       </c>
       <c r="M15">
+        <v>311</v>
+      </c>
+      <c r="N15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="1">
+        <f>D16/E16</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>1.3  (2.0, 1.5)</v>
+      </c>
+      <c r="H16">
+        <v>8.9842000000000005E-2</v>
+      </c>
+      <c r="I16">
+        <v>-0.71265599999999996</v>
+      </c>
+      <c r="J16">
+        <v>-1.031628</v>
+      </c>
+      <c r="K16">
+        <v>-1.031628</v>
+      </c>
+      <c r="L16">
+        <v>-1.031628</v>
+      </c>
+      <c r="M16">
+        <v>217</v>
+      </c>
+      <c r="N16">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>0.7</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E16" s="1">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <f>D17/E17</f>
+        <v>1.5</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>1.5  (1.5, 1.0)</v>
+      </c>
+      <c r="H17">
+        <v>-8.9842000000000005E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.71265599999999996</v>
+      </c>
+      <c r="J17">
+        <v>-1.031628</v>
+      </c>
+      <c r="K17">
+        <v>-1.031628</v>
+      </c>
+      <c r="L17">
+        <v>-1.031628</v>
+      </c>
+      <c r="M17">
+        <v>379</v>
+      </c>
+      <c r="N17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0.7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="1">
+        <f>D18/E18</f>
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>2.0  (1.0, 0.5)</v>
+      </c>
+      <c r="H18">
+        <v>8.9842000000000005E-2</v>
+      </c>
+      <c r="I18">
+        <v>-0.71265599999999996</v>
+      </c>
+      <c r="J18">
+        <v>-1.031628</v>
+      </c>
+      <c r="K18">
+        <v>-1.031628</v>
+      </c>
+      <c r="L18">
+        <v>-1.031628</v>
+      </c>
+      <c r="M18">
+        <v>678</v>
+      </c>
+      <c r="N18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <f>D19/E19</f>
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>2.0  (2.0, 1.0)</v>
+      </c>
+      <c r="H19">
+        <v>8.9842000000000005E-2</v>
+      </c>
+      <c r="I19">
+        <v>-0.71265599999999996</v>
+      </c>
+      <c r="J19">
+        <v>-1.031628</v>
+      </c>
+      <c r="K19">
+        <v>-1.031628</v>
+      </c>
+      <c r="L19">
+        <v>-1.031628</v>
+      </c>
+      <c r="M19">
+        <v>164</v>
+      </c>
+      <c r="N19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="1">
+        <f>D20/E20</f>
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>3.0  (1.5, 0.5)</v>
+      </c>
+      <c r="H20">
+        <v>8.9842000000000005E-2</v>
+      </c>
+      <c r="I20">
+        <v>-0.71265599999999996</v>
+      </c>
+      <c r="J20">
+        <v>-1.031628</v>
+      </c>
+      <c r="K20">
+        <v>-1.031628</v>
+      </c>
+      <c r="L20">
+        <v>-1.031628</v>
+      </c>
+      <c r="M20">
+        <v>165</v>
+      </c>
+      <c r="N20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0.7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="1">
+        <f>D21/E21</f>
+        <v>4</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>4.0  (2.0, 0.5)</v>
+      </c>
+      <c r="H21">
+        <v>8.9842000000000005E-2</v>
+      </c>
+      <c r="I21">
+        <v>-0.71265599999999996</v>
+      </c>
+      <c r="J21">
+        <v>-1.031628</v>
+      </c>
+      <c r="K21">
+        <v>-1.031628</v>
+      </c>
+      <c r="L21">
+        <v>-1.031628</v>
+      </c>
+      <c r="M21">
+        <v>126</v>
+      </c>
+      <c r="N21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0.7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="1">
         <v>0</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>(1.5, 0.0)</v>
-      </c>
-      <c r="G16">
+        <v>-  (0.5, 0.0)</v>
+      </c>
+      <c r="H22">
         <v>-1.751093</v>
       </c>
-      <c r="H16">
+      <c r="I22">
         <v>-0.84887800000000002</v>
       </c>
-      <c r="I16">
+      <c r="J22">
         <v>2.8116979999999998</v>
       </c>
-      <c r="J16">
+      <c r="K22">
         <v>888.85515999999996</v>
       </c>
-      <c r="K16">
+      <c r="L22">
         <v>3571.0455430000002</v>
       </c>
-      <c r="L16">
+      <c r="M22">
         <v>20</v>
       </c>
-      <c r="M16">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>0.7</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F17" t="str">
+      <c r="N22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0.7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>(1.5, 0.5)</v>
-      </c>
-      <c r="G17">
-        <v>8.9842000000000005E-2</v>
-      </c>
-      <c r="H17">
-        <v>-0.71265599999999996</v>
-      </c>
-      <c r="I17">
-        <v>-1.031628</v>
-      </c>
-      <c r="J17">
-        <v>-1.031628</v>
-      </c>
-      <c r="K17">
-        <v>-1.031628</v>
-      </c>
-      <c r="L17">
-        <v>165</v>
-      </c>
-      <c r="M17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>0.7</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" t="str">
+        <v>-  (1.0, 0.0)</v>
+      </c>
+      <c r="H23">
+        <v>-1.751093</v>
+      </c>
+      <c r="I23">
+        <v>-0.84887800000000002</v>
+      </c>
+      <c r="J23">
+        <v>2.8116979999999998</v>
+      </c>
+      <c r="K23">
+        <v>888.85515999999996</v>
+      </c>
+      <c r="L23">
+        <v>3571.0455430000002</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0.7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>(1.5, 1.0)</v>
-      </c>
-      <c r="G18">
-        <v>-8.9842000000000005E-2</v>
-      </c>
-      <c r="H18">
-        <v>0.71265599999999996</v>
-      </c>
-      <c r="I18">
-        <v>-1.031628</v>
-      </c>
-      <c r="J18">
-        <v>-1.031628</v>
-      </c>
-      <c r="K18">
-        <v>-1.031628</v>
-      </c>
-      <c r="L18">
-        <v>379</v>
-      </c>
-      <c r="M18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>0.7</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F19" t="str">
+        <v>-  (1.5, 0.0)</v>
+      </c>
+      <c r="H24">
+        <v>-1.751093</v>
+      </c>
+      <c r="I24">
+        <v>-0.84887800000000002</v>
+      </c>
+      <c r="J24">
+        <v>2.8116979999999998</v>
+      </c>
+      <c r="K24">
+        <v>888.85515999999996</v>
+      </c>
+      <c r="L24">
+        <v>3571.0455430000002</v>
+      </c>
+      <c r="M24">
+        <v>20</v>
+      </c>
+      <c r="N24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0.7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>(1.5, 1.5)</v>
-      </c>
-      <c r="G19">
-        <v>-8.9842000000000005E-2</v>
-      </c>
-      <c r="H19">
-        <v>0.71265599999999996</v>
-      </c>
-      <c r="I19">
-        <v>-1.031628</v>
-      </c>
-      <c r="J19">
-        <v>-1.031628</v>
-      </c>
-      <c r="K19">
-        <v>-1.031628</v>
-      </c>
-      <c r="L19">
-        <v>166</v>
-      </c>
-      <c r="M19">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>0.7</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>(1.5, 2.0)</v>
-      </c>
-      <c r="G20">
-        <v>-8.9842000000000005E-2</v>
-      </c>
-      <c r="H20">
-        <v>0.71265599999999996</v>
-      </c>
-      <c r="I20">
-        <v>-1.031628</v>
-      </c>
-      <c r="J20">
-        <v>-0.99601399999999995</v>
-      </c>
-      <c r="K20">
-        <v>-0.14127000000000001</v>
-      </c>
-      <c r="L20">
-        <v>1000</v>
-      </c>
-      <c r="M20">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>0.7</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>(2.0, 0.0)</v>
-      </c>
-      <c r="G21">
+        <v>-  (2.0, 0.0)</v>
+      </c>
+      <c r="H25">
         <v>-1.751093</v>
       </c>
-      <c r="H21">
+      <c r="I25">
         <v>-0.84887800000000002</v>
       </c>
-      <c r="I21">
+      <c r="J25">
         <v>2.8116979999999998</v>
       </c>
-      <c r="J21">
+      <c r="K25">
         <v>888.85515999999996</v>
       </c>
-      <c r="K21">
+      <c r="L25">
         <v>3571.0455430000002</v>
       </c>
-      <c r="L21">
+      <c r="M25">
         <v>20</v>
       </c>
-      <c r="M21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>0.7</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>(2.0, 0.5)</v>
-      </c>
-      <c r="G22">
-        <v>8.9842000000000005E-2</v>
-      </c>
-      <c r="H22">
-        <v>-0.71265599999999996</v>
-      </c>
-      <c r="I22">
-        <v>-1.031628</v>
-      </c>
-      <c r="J22">
-        <v>-1.031628</v>
-      </c>
-      <c r="K22">
-        <v>-1.031628</v>
-      </c>
-      <c r="L22">
-        <v>126</v>
-      </c>
-      <c r="M22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>0.7</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>(2.0, 1.0)</v>
-      </c>
-      <c r="G23">
-        <v>8.9842000000000005E-2</v>
-      </c>
-      <c r="H23">
-        <v>-0.71265599999999996</v>
-      </c>
-      <c r="I23">
-        <v>-1.031628</v>
-      </c>
-      <c r="J23">
-        <v>-1.031628</v>
-      </c>
-      <c r="K23">
-        <v>-1.031628</v>
-      </c>
-      <c r="L23">
-        <v>164</v>
-      </c>
-      <c r="M23">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>0.7</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>(2.0, 1.5)</v>
-      </c>
-      <c r="G24">
-        <v>8.9842000000000005E-2</v>
-      </c>
-      <c r="H24">
-        <v>-0.71265599999999996</v>
-      </c>
-      <c r="I24">
-        <v>-1.031628</v>
-      </c>
-      <c r="J24">
-        <v>-1.031628</v>
-      </c>
-      <c r="K24">
-        <v>-1.031628</v>
-      </c>
-      <c r="L24">
-        <v>217</v>
-      </c>
-      <c r="M24">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>0.7</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>(2.0, 2.0)</v>
-      </c>
-      <c r="G25">
-        <v>-8.9842000000000005E-2</v>
-      </c>
-      <c r="H25">
-        <v>0.71265599999999996</v>
-      </c>
-      <c r="I25">
-        <v>-1.031628</v>
-      </c>
-      <c r="J25">
-        <v>-1.031628</v>
-      </c>
-      <c r="K25">
-        <v>-1.031628</v>
-      </c>
-      <c r="L25">
-        <v>311</v>
-      </c>
-      <c r="M25">
-        <v>27</v>
+      <c r="N25">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{0322D51F-B60A-440E-9C88-C63FA7320B66}"/>
+  <autoFilter ref="A1:N1" xr:uid="{0322D51F-B60A-440E-9C88-C63FA7320B66}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N25">
+      <sortCondition ref="F1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14524,7 +14353,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+      <selection activeCell="I11" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14996,7 +14825,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16987,8 +16816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B46EF77-A5F0-46ED-A959-1F0D05B3D79D}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
